--- a/data/xpaths.xlsx
+++ b/data/xpaths.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\AutoPageExplorer\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="XPath Data" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="XPath Data"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>base_url</t>
   </si>
@@ -84,6 +79,12 @@
     <t>map_price</t>
   </si>
   <si>
+    <t>map_num_of_reviews</t>
+  </si>
+  <si>
+    <t>data_id</t>
+  </si>
+  <si>
     <t>varoom.com</t>
   </si>
   <si>
@@ -144,6 +145,12 @@
     <t>.//span[contains(@class, "js-nearby-price-value")]</t>
   </si>
   <si>
+    <t>.//span[contains(@class, "number-of-reviews")]</t>
+  </si>
+  <si>
+    <t>//div[@class='details js-tiles-redirect']/@data-id</t>
+  </si>
+  <si>
     <t>Hybrid</t>
   </si>
   <si>
@@ -162,22 +169,17 @@
     <t>.//span[contains(@class, "text-bold new-text")]</t>
   </si>
   <si>
-    <t>.//span[contains(@class, "number-of-reviews")]</t>
+    <t>.//strong[contains(@class, "review-score")]</t>
   </si>
   <si>
     <t>//div[@class="availability-price" and @id="js-default-price"]//span/strong</t>
-  </si>
-  <si>
-    <t>map_num_of_reviews</t>
-  </si>
-  <si>
-    <t>.//strong[contains(@class, "review-score")]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,35 +222,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -259,34 +255,34 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="ffffff" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -300,71 +296,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,7 +388,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -415,11 +411,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -428,13 +424,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -444,7 +440,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -453,7 +449,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -462,7 +458,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -470,10 +466,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -542,198 +538,225 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="2.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="48.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="4" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="4" width="12.43357142857143" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="23" max="23" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2" t="s">
+      <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
